--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -543,7 +543,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H2">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>0.3251468585662222</v>
+        <v>0.2293354123066667</v>
       </c>
       <c r="R2">
-        <v>2.926321727096</v>
+        <v>2.06401871076</v>
       </c>
       <c r="S2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="T2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>0.7330749405675556</v>
+        <v>0.7330749405675555</v>
       </c>
       <c r="R3">
-        <v>6.597674465108001</v>
+        <v>6.597674465108</v>
       </c>
       <c r="S3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="T3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H4">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>0.1467997548128889</v>
+        <v>0.1823836145928889</v>
       </c>
       <c r="R4">
-        <v>1.321197793316</v>
+        <v>1.641452531336</v>
       </c>
       <c r="S4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="T4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H5">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>0.2022683059393334</v>
+        <v>0.3005179834446666</v>
       </c>
       <c r="R5">
-        <v>1.213609835636</v>
+        <v>1.803107900668</v>
       </c>
       <c r="S5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="T5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H6">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>0.1891079012377778</v>
+        <v>0.1159202347248889</v>
       </c>
       <c r="R6">
-        <v>1.70197111114</v>
+        <v>1.043282112524</v>
       </c>
       <c r="S6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="T6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
     </row>
   </sheetData>
